--- a/output/temp/output.xlsx
+++ b/output/temp/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t xml:space="preserve">dyResnet </t>
   </si>
@@ -33,6 +33,12 @@
     <t xml:space="preserve">dyResnet_inkernalspatial </t>
   </si>
   <si>
+    <t>ViT_b</t>
+  </si>
+  <si>
+    <t>convnext</t>
+  </si>
+  <si>
     <t>batch_size</t>
   </si>
   <si>
@@ -48,6 +54,18 @@
     <t>FPS</t>
   </si>
   <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>0.001-0.1</t>
+  </si>
+  <si>
+    <t>0.004-0.05</t>
+  </si>
+  <si>
+    <t>epoch 300</t>
+  </si>
+  <si>
     <t>Best Acc(Test):</t>
   </si>
   <si>
@@ -61,6 +79,24 @@
   </si>
   <si>
     <t>5653MiB</t>
+  </si>
+  <si>
+    <t>5659MiB</t>
+  </si>
+  <si>
+    <t>5335MiB</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>adamW</t>
+  </si>
+  <si>
+    <t>image_size</t>
   </si>
 </sst>
 </file>
@@ -73,13 +109,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -534,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,34 +588,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,99 +624,108 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,6 +787,137 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>544195</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7449185" y="4145280"/>
+          <a:ext cx="7002145" cy="2338070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>904240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904240" y="4175125"/>
+          <a:ext cx="6659245" cy="2223770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414020</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="6419850"/>
+          <a:ext cx="7244080" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1028,13 +1207,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.8833333333333" customWidth="1"/>
     <col min="2" max="2" width="9.375"/>
@@ -1042,7 +1221,7 @@
     <col min="5" max="5" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:19">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1058,10 +1237,31 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -1078,10 +1278,31 @@
       <c r="F2">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="M2">
+        <v>32</v>
+      </c>
+      <c r="N2">
+        <v>32</v>
+      </c>
+      <c r="O2">
+        <v>32</v>
+      </c>
+      <c r="P2">
+        <v>32</v>
+      </c>
+      <c r="Q2">
+        <v>32</v>
+      </c>
+      <c r="R2">
+        <v>32</v>
+      </c>
+      <c r="S2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1090,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1098,10 +1319,31 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.0625</v>
@@ -1110,7 +1352,7 @@
         <v>0.0625</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0.0625</v>
@@ -1118,10 +1360,31 @@
       <c r="F4">
         <v>0.0625</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>111.21</v>
@@ -1138,10 +1401,74 @@
       <c r="F5">
         <v>122.33</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>81.56</v>
+      </c>
+      <c r="P5">
+        <v>87.38</v>
+      </c>
+      <c r="Q5">
+        <v>87.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="15:19">
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0.8667</v>
@@ -1157,6 +1484,27 @@
       </c>
       <c r="F8">
         <v>0.8639</v>
+      </c>
+      <c r="M8">
+        <v>0.5556</v>
+      </c>
+      <c r="N8">
+        <v>0.5361</v>
+      </c>
+      <c r="O8">
+        <v>0.6806</v>
+      </c>
+      <c r="P8">
+        <v>0.7556</v>
+      </c>
+      <c r="Q8">
+        <v>0.9833</v>
+      </c>
+      <c r="R8">
+        <v>0.8972</v>
+      </c>
+      <c r="S8">
+        <v>0.9917</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1206,60 +1554,273 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <f>AVERAGE(B8:B19)</f>
+        <f t="shared" ref="B20:G20" si="0">AVERAGE(B8:B19)</f>
         <v>0.854175</v>
       </c>
       <c r="C20">
-        <f>AVERAGE(C8:C19)</f>
+        <f t="shared" si="0"/>
         <v>0.85778</v>
       </c>
       <c r="D20">
-        <f>AVERAGE(D8:D19)</f>
+        <f t="shared" si="0"/>
         <v>0.829633333333333</v>
       </c>
       <c r="E20">
-        <f>AVERAGE(E8:E19)</f>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="F20">
-        <f>AVERAGE(F8:F19)</f>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="G20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGE(M8:M19)</f>
+        <v>0.5556</v>
+      </c>
+      <c r="N20">
+        <f>AVERAGE(N8:N19)</f>
+        <v>0.5361</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(O8:O19)</f>
+        <v>0.6806</v>
+      </c>
+      <c r="P20">
+        <f>AVERAGE(P8:P19)</f>
+        <v>0.7556</v>
+      </c>
+      <c r="Q20">
+        <f>AVERAGE(Q8:Q19)</f>
+        <v>0.9833</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>25</v>
+      </c>
+      <c r="R23" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>224</v>
+      </c>
+      <c r="C24">
+        <v>224</v>
+      </c>
+      <c r="D24">
+        <v>224</v>
+      </c>
+      <c r="E24">
+        <v>224</v>
+      </c>
+      <c r="F24">
+        <v>224</v>
+      </c>
+      <c r="M24">
+        <v>120</v>
+      </c>
+      <c r="N24">
+        <v>224</v>
+      </c>
+      <c r="O24">
+        <v>224</v>
+      </c>
+      <c r="P24">
+        <v>224</v>
+      </c>
+      <c r="Q24">
+        <v>224</v>
+      </c>
+      <c r="R24">
+        <v>224</v>
+      </c>
+      <c r="S24">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A3:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/output/temp/output.xlsx
+++ b/output/temp/output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t xml:space="preserve">dyResnet </t>
   </si>
@@ -87,6 +87,21 @@
     <t>5335MiB</t>
   </si>
   <si>
+    <t>Total network parameters:</t>
+  </si>
+  <si>
+    <t>7.633813M</t>
+  </si>
+  <si>
+    <t>5.226821M</t>
+  </si>
+  <si>
+    <t>85.691141M</t>
+  </si>
+  <si>
+    <t>27.823973M</t>
+  </si>
+  <si>
     <t>optimizer</t>
   </si>
   <si>
@@ -97,6 +112,9 @@
   </si>
   <si>
     <t>image_size</t>
+  </si>
+  <si>
+    <t>epoch 150</t>
   </si>
 </sst>
 </file>
@@ -913,6 +931,49 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>486410</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="val"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="4200525"/>
+          <a:ext cx="8172450" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1209,8 +1270,8 @@
   <sheetPr/>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1626,50 +1687,67 @@
         <v>22</v>
       </c>
     </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>224</v>
@@ -1719,10 +1797,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1730,100 +1808,124 @@
     <col min="1" max="1" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="3:3">
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8">
+        <v>0.6123</v>
+      </c>
+      <c r="B8">
+        <v>0.6651</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="3:3">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="3:3">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="3:3">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="3:3">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="3:3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="3:3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="3:3">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="3:3">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="3:3">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+    <row r="18" spans="3:3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+    <row r="19" spans="3:3">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+    <row r="20" spans="3:3">
       <c r="C20" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>224</v>
+      </c>
+      <c r="B24">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/output/temp/output.xlsx
+++ b/output/temp/output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
   <si>
     <t xml:space="preserve">dyResnet </t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>image_size</t>
-  </si>
-  <si>
-    <t>epoch 150</t>
   </si>
 </sst>
 </file>
@@ -931,49 +928,6 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>486410</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="val"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="635" y="4200525"/>
-          <a:ext cx="8172450" cy="2724150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1270,8 +1224,8 @@
   <sheetPr/>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1799,8 +1753,8 @@
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1854,19 +1808,10 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
+    <row r="7" spans="3:3">
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>0.6123</v>
-      </c>
-      <c r="B8">
-        <v>0.6651</v>
-      </c>
+    <row r="8" spans="3:3">
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="3:3">
@@ -1925,7 +1870,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
